--- a/COBB_DOUGLAS.xlsx
+++ b/COBB_DOUGLAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2133c43bc661f754/UPV ESTUDIO/ESTRATEGIA DE OPERACIONES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49A3708D-F6C1-44FA-8F6E-78A77D524FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{49A3708D-F6C1-44FA-8F6E-78A77D524FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E7EBBE3-AE67-4552-843F-289C82273497}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="135" windowWidth="28605" windowHeight="14850" xr2:uid="{0CA86B66-5A59-4982-A3B2-6EA08A665326}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0CA86B66-5A59-4982-A3B2-6EA08A665326}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -424,12 +424,12 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -443,7 +443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -457,7 +457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1951</v>
       </c>
@@ -468,10 +468,10 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1952</v>
       </c>
@@ -482,10 +482,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1953</v>
       </c>
@@ -496,10 +496,10 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1954</v>
       </c>
@@ -510,10 +510,10 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1955</v>
       </c>
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1956</v>
       </c>
@@ -538,10 +538,10 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1957</v>
       </c>
@@ -552,10 +552,10 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1958</v>
       </c>
@@ -566,10 +566,10 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1959</v>
       </c>
@@ -580,10 +580,10 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1960</v>
       </c>
@@ -594,10 +594,10 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1961</v>
       </c>
@@ -608,10 +608,10 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1962</v>
       </c>
@@ -622,10 +622,10 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1963</v>
       </c>
@@ -636,10 +636,10 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1964</v>
       </c>
@@ -650,10 +650,10 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1965</v>
       </c>
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1966</v>
       </c>
@@ -678,10 +678,10 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1967</v>
       </c>
@@ -692,10 +692,10 @@
         <v>25</v>
       </c>
       <c r="D19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1968</v>
       </c>
@@ -706,10 +706,10 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1969</v>
       </c>
@@ -720,10 +720,10 @@
         <v>23</v>
       </c>
       <c r="D21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1970</v>
       </c>
@@ -734,10 +734,10 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1971</v>
       </c>
@@ -748,10 +748,10 @@
         <v>28</v>
       </c>
       <c r="D23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1972</v>
       </c>
@@ -762,10 +762,10 @@
         <v>29</v>
       </c>
       <c r="D24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1973</v>
       </c>
@@ -776,10 +776,10 @@
         <v>30</v>
       </c>
       <c r="D25">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1974</v>
       </c>
@@ -790,10 +790,10 @@
         <v>30</v>
       </c>
       <c r="D26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1975</v>
       </c>
@@ -804,10 +804,10 @@
         <v>31</v>
       </c>
       <c r="D27">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1976</v>
       </c>
@@ -818,10 +818,10 @@
         <v>30</v>
       </c>
       <c r="D28">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1977</v>
       </c>
@@ -832,10 +832,10 @@
         <v>32</v>
       </c>
       <c r="D29">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1978</v>
       </c>
@@ -846,10 +846,10 @@
         <v>33</v>
       </c>
       <c r="D30">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1979</v>
       </c>
@@ -860,10 +860,10 @@
         <v>31</v>
       </c>
       <c r="D31">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1980</v>
       </c>
@@ -874,10 +874,10 @@
         <v>32</v>
       </c>
       <c r="D32">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1981</v>
       </c>
@@ -888,10 +888,10 @@
         <v>30</v>
       </c>
       <c r="D33">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1982</v>
       </c>
@@ -902,10 +902,10 @@
         <v>34</v>
       </c>
       <c r="D34">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1983</v>
       </c>
@@ -916,10 +916,10 @@
         <v>35</v>
       </c>
       <c r="D35">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1984</v>
       </c>
@@ -930,10 +930,10 @@
         <v>36</v>
       </c>
       <c r="D36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1985</v>
       </c>
@@ -944,10 +944,10 @@
         <v>38</v>
       </c>
       <c r="D37">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1986</v>
       </c>
@@ -958,10 +958,10 @@
         <v>38</v>
       </c>
       <c r="D38">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1987</v>
       </c>
@@ -972,10 +972,10 @@
         <v>38</v>
       </c>
       <c r="D39">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1988</v>
       </c>
@@ -986,10 +986,10 @@
         <v>39</v>
       </c>
       <c r="D40">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1989</v>
       </c>
@@ -1000,10 +1000,10 @@
         <v>39</v>
       </c>
       <c r="D41">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1990</v>
       </c>
@@ -1014,10 +1014,10 @@
         <v>39</v>
       </c>
       <c r="D42">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1991</v>
       </c>
@@ -1028,10 +1028,10 @@
         <v>40</v>
       </c>
       <c r="D43">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1992</v>
       </c>
@@ -1042,10 +1042,10 @@
         <v>41</v>
       </c>
       <c r="D44">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1993</v>
       </c>
@@ -1056,10 +1056,10 @@
         <v>42</v>
       </c>
       <c r="D45">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1994</v>
       </c>
@@ -1070,10 +1070,10 @@
         <v>41</v>
       </c>
       <c r="D46">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1995</v>
       </c>
@@ -1084,10 +1084,10 @@
         <v>43</v>
       </c>
       <c r="D47">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1996</v>
       </c>
@@ -1098,10 +1098,10 @@
         <v>45</v>
       </c>
       <c r="D48">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1997</v>
       </c>
@@ -1112,10 +1112,10 @@
         <v>44</v>
       </c>
       <c r="D49">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1998</v>
       </c>
@@ -1126,10 +1126,10 @@
         <v>44</v>
       </c>
       <c r="D50">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1999</v>
       </c>
@@ -1140,10 +1140,10 @@
         <v>44</v>
       </c>
       <c r="D51">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2000</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>46</v>
       </c>
       <c r="D52">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1168,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
